--- a/ope.ed.gov/2012/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
+++ b/ope.ed.gov/2012/criminal-offenses-noncampus-virginia-colleges-and-universities-crime-2012.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Noncampus</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -595,52 +592,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2012.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231411.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>787.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -648,45 +687,21 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231411.0</v>
+        <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>787.0</v>
-      </c>
-      <c s="1" r="G3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I3">
-        <v>0.0</v>
+        <v>1403.0</v>
       </c>
       <c s="1" r="J3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N3">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O3">
         <v>0.0</v>
       </c>
     </row>
@@ -698,13 +713,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
         <v>1403.0</v>
@@ -721,13 +736,13 @@
         <v>449931.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
         <v>1403.0</v>
@@ -741,21 +756,45 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B6">
-        <v>449931.0</v>
+        <v>231536.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>1403.0</v>
+        <v>4694.0</v>
+      </c>
+      <c s="1" r="G6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I6">
+        <v>0.0</v>
       </c>
       <c s="1" r="J6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N6">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O6">
         <v>0.0</v>
       </c>
     </row>
@@ -764,19 +803,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B7">
-        <v>231536.0</v>
+        <v>231554.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>4694.0</v>
+        <v>831.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -811,19 +850,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B8">
-        <v>231554.0</v>
+        <v>231581.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>831.0</v>
+        <v>1759.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -858,19 +897,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B9">
-        <v>231581.0</v>
+        <v>231712.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>1759.0</v>
+        <v>5186.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -905,19 +944,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B10">
-        <v>231712.0</v>
+        <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>5186.0</v>
+        <v>8258.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -955,13 +994,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
         <v>8258.0</v>
@@ -1002,13 +1041,13 @@
         <v>231624.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
         <v>8258.0</v>
@@ -1035,7 +1074,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N12">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O12">
         <v>0.0</v>
@@ -1046,19 +1085,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B13">
-        <v>231624.0</v>
+        <v>231882.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>8258.0</v>
+        <v>4420.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -1082,7 +1121,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N13">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O13">
         <v>0.0</v>
@@ -1093,19 +1132,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B14">
-        <v>231882.0</v>
+        <v>232043.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>4420.0</v>
+        <v>1519.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -1140,19 +1179,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B15">
-        <v>232043.0</v>
+        <v>231970.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1519.0</v>
+        <v>993.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -1173,7 +1212,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M15">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N15">
         <v>0.0</v>
@@ -1187,19 +1226,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B16">
-        <v>231970.0</v>
+        <v>248934.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
-        <v>993.0</v>
+        <v>9840.0</v>
       </c>
       <c s="1" r="G16">
         <v>0.0</v>
@@ -1220,7 +1259,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M16">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N16">
         <v>0.0</v>
@@ -1234,19 +1273,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B17">
-        <v>248934.0</v>
+        <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
-        <v>9840.0</v>
+        <v>1144.0</v>
       </c>
       <c s="1" r="G17">
         <v>0.0</v>
@@ -1284,13 +1323,13 @@
         <v>442806.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>1144.0</v>
@@ -1328,19 +1367,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B19">
-        <v>442806.0</v>
+        <v>232025.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>1144.0</v>
+        <v>945.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1375,19 +1414,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B20">
-        <v>232025.0</v>
+        <v>232089.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
-        <v>945.0</v>
+        <v>1510.0</v>
       </c>
       <c s="1" r="G20">
         <v>0.0</v>
@@ -1396,7 +1435,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I20">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J20">
         <v>0.0</v>
@@ -1422,19 +1461,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B21">
-        <v>232089.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>1510.0</v>
+        <v>32961.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1443,7 +1482,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
@@ -1469,19 +1508,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B22">
-        <v>232186.0</v>
+        <v>232195.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>32961.0</v>
+        <v>7520.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1516,19 +1555,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B23">
-        <v>232195.0</v>
+        <v>232256.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>7520.0</v>
+        <v>1080.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1563,19 +1602,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B24">
-        <v>232256.0</v>
+        <v>232265.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>1080.0</v>
+        <v>4765.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1593,7 +1632,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L24">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M24">
         <v>0.0</v>
@@ -1610,19 +1649,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B25">
-        <v>232265.0</v>
+        <v>232308.0</v>
       </c>
       <c t="s" s="1" r="C25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c s="1" r="D25">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E25">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c s="1" r="F25">
-        <v>4765.0</v>
+        <v>794.0</v>
       </c>
       <c s="1" r="G25">
         <v>0.0</v>
@@ -1640,7 +1679,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L25">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M25">
         <v>0.0</v>
@@ -1657,19 +1696,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B26">
-        <v>232308.0</v>
+        <v>232414.0</v>
       </c>
       <c t="s" s="1" r="C26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c s="1" r="D26">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c s="1" r="F26">
-        <v>794.0</v>
+        <v>12846.0</v>
       </c>
       <c s="1" r="G26">
         <v>0.0</v>
@@ -1704,19 +1743,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B27">
-        <v>232414.0</v>
+        <v>232423.0</v>
       </c>
       <c t="s" s="1" r="C27">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c s="1" r="D27">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E27">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c s="1" r="F27">
-        <v>12846.0</v>
+        <v>19927.0</v>
       </c>
       <c s="1" r="G27">
         <v>0.0</v>
@@ -1725,7 +1764,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J27">
         <v>0.0</v>
@@ -1734,7 +1773,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L27">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M27">
         <v>0.0</v>
@@ -1751,19 +1790,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B28">
-        <v>232423.0</v>
+        <v>231837.0</v>
       </c>
       <c t="s" s="1" r="C28">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c s="1" r="D28">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E28">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c s="1" r="F28">
-        <v>19927.0</v>
+        <v>1048.0</v>
       </c>
       <c s="1" r="G28">
         <v>0.0</v>
@@ -1778,10 +1817,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K28">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L28">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M28">
         <v>0.0</v>
@@ -1798,19 +1837,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B29">
-        <v>231837.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C29">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c s="1" r="D29">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E29">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c s="1" r="F29">
-        <v>1048.0</v>
+        <v>74372.0</v>
       </c>
       <c s="1" r="G29">
         <v>0.0</v>
@@ -1819,19 +1858,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J29">
         <v>0.0</v>
       </c>
       <c s="1" r="K29">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L29">
         <v>0.0</v>
       </c>
       <c s="1" r="M29">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N29">
         <v>0.0</v>
@@ -1845,19 +1884,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B30">
-        <v>232557.0</v>
+        <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C30">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c s="1" r="D30">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E30">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c s="1" r="F30">
-        <v>74372.0</v>
+        <v>4834.0</v>
       </c>
       <c s="1" r="G30">
         <v>0.0</v>
@@ -1878,7 +1917,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M30">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N30">
         <v>0.0</v>
@@ -1895,13 +1934,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C31">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c s="1" r="D31">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E31">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c s="1" r="F31">
         <v>4834.0</v>
@@ -1942,13 +1981,13 @@
         <v>232566.0</v>
       </c>
       <c t="s" s="1" r="C32">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c s="1" r="D32">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E32">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c s="1" r="F32">
         <v>4834.0</v>
@@ -1986,19 +2025,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B33">
-        <v>232566.0</v>
+        <v>232609.0</v>
       </c>
       <c t="s" s="1" r="C33">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c s="1" r="D33">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E33">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c s="1" r="F33">
-        <v>4834.0</v>
+        <v>2756.0</v>
       </c>
       <c s="1" r="G33">
         <v>0.0</v>
@@ -2016,7 +2055,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L33">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M33">
         <v>0.0</v>
@@ -2033,19 +2072,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B34">
-        <v>232609.0</v>
+        <v>232706.0</v>
       </c>
       <c t="s" s="1" r="C34">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c s="1" r="D34">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c s="1" r="F34">
-        <v>2756.0</v>
+        <v>3702.0</v>
       </c>
       <c s="1" r="G34">
         <v>0.0</v>
@@ -2063,10 +2102,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L34">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M34">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N34">
         <v>0.0</v>
@@ -2080,19 +2119,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B35">
-        <v>232706.0</v>
+        <v>232788.0</v>
       </c>
       <c t="s" s="1" r="C35">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c s="1" r="D35">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E35">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c s="1" r="F35">
-        <v>3702.0</v>
+        <v>3089.0</v>
       </c>
       <c s="1" r="G35">
         <v>0.0</v>
@@ -2113,7 +2152,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M35">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N35">
         <v>0.0</v>
@@ -2127,19 +2166,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B36">
-        <v>232788.0</v>
+        <v>232867.0</v>
       </c>
       <c t="s" s="1" r="C36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c s="1" r="D36">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c s="1" r="F36">
-        <v>3089.0</v>
+        <v>5083.0</v>
       </c>
       <c s="1" r="G36">
         <v>0.0</v>
@@ -2157,10 +2196,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L36">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M36">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N36">
         <v>0.0</v>
@@ -2174,19 +2213,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B37">
-        <v>232867.0</v>
+        <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C37">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c s="1" r="D37">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c s="1" r="F37">
-        <v>5083.0</v>
+        <v>51864.0</v>
       </c>
       <c s="1" r="G37">
         <v>0.0</v>
@@ -2195,7 +2234,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I37">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="J37">
         <v>0.0</v>
@@ -2204,16 +2243,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L37">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M37">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="N37">
         <v>0.0</v>
       </c>
       <c s="1" r="O37">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
@@ -2224,13 +2263,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C38">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c s="1" r="D38">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E38">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c s="1" r="F38">
         <v>51864.0</v>
@@ -2242,22 +2281,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I38">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J38">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="K38">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L38">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M38">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N38">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="O38">
         <v>3.0</v>
@@ -2271,13 +2310,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c s="1" r="D39">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c s="1" r="F39">
         <v>51864.0</v>
@@ -2289,25 +2328,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I39">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c s="1" r="J39">
         <v>3.0</v>
       </c>
       <c s="1" r="K39">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L39">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M39">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N39">
         <v>2.0</v>
       </c>
       <c s="1" r="O39">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -2318,13 +2357,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c s="1" r="D40">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E40">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c s="1" r="F40">
         <v>51864.0</v>
@@ -2336,25 +2375,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I40">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="J40">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K40">
         <v>0.0</v>
       </c>
       <c s="1" r="L40">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="M40">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="N40">
         <v>2.0</v>
       </c>
       <c s="1" r="O40">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -2365,13 +2404,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c s="1" r="D41">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c s="1" r="F41">
         <v>51864.0</v>
@@ -2383,25 +2422,25 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I41">
+        <v>3.0</v>
+      </c>
+      <c s="1" r="J41">
         <v>2.0</v>
       </c>
-      <c s="1" r="J41">
-        <v>0.0</v>
-      </c>
       <c s="1" r="K41">
         <v>0.0</v>
       </c>
       <c s="1" r="L41">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M41">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N41">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O41">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -2412,13 +2451,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C42">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c s="1" r="D42">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E42">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c s="1" r="F42">
         <v>51864.0</v>
@@ -2430,22 +2469,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I42">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J42">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="K42">
         <v>0.0</v>
       </c>
       <c s="1" r="L42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M42">
         <v>0.0</v>
       </c>
       <c s="1" r="N42">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O42">
         <v>0.0</v>
@@ -2459,13 +2498,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C43">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c s="1" r="D43">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c t="s" s="1" r="E43">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c s="1" r="F43">
         <v>51864.0</v>
@@ -2506,13 +2545,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C44">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c s="1" r="D44">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c t="s" s="1" r="E44">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c s="1" r="F44">
         <v>51864.0</v>
@@ -2553,13 +2592,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C45">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c s="1" r="D45">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c t="s" s="1" r="E45">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c s="1" r="F45">
         <v>51864.0</v>
@@ -2600,13 +2639,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C46">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c s="1" r="D46">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c t="s" s="1" r="E46">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c s="1" r="F46">
         <v>51864.0</v>
@@ -2647,13 +2686,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C47">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c s="1" r="D47">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c t="s" s="1" r="E47">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c s="1" r="F47">
         <v>51864.0</v>
@@ -2694,13 +2733,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C48">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c s="1" r="D48">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c t="s" s="1" r="E48">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c s="1" r="F48">
         <v>51864.0</v>
@@ -2741,13 +2780,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C49">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c s="1" r="D49">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c t="s" s="1" r="E49">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c s="1" r="F49">
         <v>51864.0</v>
@@ -2788,13 +2827,13 @@
         <v>232946.0</v>
       </c>
       <c t="s" s="1" r="C50">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c s="1" r="D50">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c t="s" s="1" r="E50">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c s="1" r="F50">
         <v>51864.0</v>
@@ -2832,19 +2871,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B51">
-        <v>232946.0</v>
+        <v>232982.0</v>
       </c>
       <c t="s" s="1" r="C51">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c s="1" r="D51">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E51">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c s="1" r="F51">
-        <v>51864.0</v>
+        <v>24670.0</v>
       </c>
       <c s="1" r="G51">
         <v>0.0</v>
@@ -2879,19 +2918,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B52">
-        <v>232982.0</v>
+        <v>233019.0</v>
       </c>
       <c t="s" s="1" r="C52">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c s="1" r="D52">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E52">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c s="1" r="F52">
-        <v>24670.0</v>
+        <v>3079.0</v>
       </c>
       <c s="1" r="G52">
         <v>0.0</v>
@@ -2926,19 +2965,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B53">
-        <v>233019.0</v>
+        <v>233116.0</v>
       </c>
       <c t="s" s="1" r="C53">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c s="1" r="D53">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E53">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c s="1" r="F53">
-        <v>3079.0</v>
+        <v>5693.0</v>
       </c>
       <c s="1" r="G53">
         <v>0.0</v>
@@ -2973,19 +3012,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B54">
-        <v>233116.0</v>
+        <v>233277.0</v>
       </c>
       <c t="s" s="1" r="C54">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c s="1" r="D54">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E54">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c s="1" r="F54">
-        <v>5693.0</v>
+        <v>9573.0</v>
       </c>
       <c s="1" r="G54">
         <v>0.0</v>
@@ -3003,10 +3042,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L54">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M54">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N54">
         <v>0.0</v>
@@ -3020,19 +3059,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B55">
-        <v>233277.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C55">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c s="1" r="D55">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E55">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c s="1" r="F55">
-        <v>9573.0</v>
+        <v>3711.0</v>
       </c>
       <c s="1" r="G55">
         <v>0.0</v>
@@ -3050,10 +3089,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="L55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M55">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N55">
         <v>0.0</v>
@@ -3067,45 +3106,21 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B56">
-        <v>233310.0</v>
+        <v>233541.0</v>
       </c>
       <c t="s" s="1" r="C56">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c s="1" r="D56">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E56">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c s="1" r="F56">
-        <v>3711.0</v>
-      </c>
-      <c s="1" r="G56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I56">
-        <v>0.0</v>
+        <v>4176.0</v>
       </c>
       <c s="1" r="J56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N56">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O56">
         <v>0.0</v>
       </c>
     </row>
@@ -3114,21 +3129,45 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B57">
-        <v>233541.0</v>
+        <v>233639.0</v>
       </c>
       <c t="s" s="1" r="C57">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c s="1" r="D57">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E57">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c s="1" r="F57">
-        <v>4176.0</v>
+        <v>6042.0</v>
+      </c>
+      <c s="1" r="G57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I57">
+        <v>0.0</v>
       </c>
       <c s="1" r="J57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N57">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O57">
         <v>0.0</v>
       </c>
     </row>
@@ -3137,19 +3176,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B58">
-        <v>233639.0</v>
+        <v>233648.0</v>
       </c>
       <c t="s" s="1" r="C58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c s="1" r="D58">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c s="1" r="F58">
-        <v>6042.0</v>
+        <v>2766.0</v>
       </c>
       <c s="1" r="G58">
         <v>0.0</v>
@@ -3184,19 +3223,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B59">
-        <v>233648.0</v>
+        <v>233718.0</v>
       </c>
       <c t="s" s="1" r="C59">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c s="1" r="D59">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E59">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c s="1" r="F59">
-        <v>2766.0</v>
+        <v>739.0</v>
       </c>
       <c s="1" r="G59">
         <v>0.0</v>
@@ -3231,19 +3270,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B60">
-        <v>233718.0</v>
+        <v>458496.0</v>
       </c>
       <c t="s" s="1" r="C60">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c s="1" r="D60">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E60">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c s="1" r="F60">
-        <v>739.0</v>
+        <v>550.0</v>
       </c>
       <c s="1" r="G60">
         <v>0.0</v>
@@ -3278,19 +3317,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B61">
-        <v>458496.0</v>
+        <v>440341.0</v>
       </c>
       <c t="s" s="1" r="C61">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c s="1" r="D61">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c s="1" r="F61">
-        <v>550.0</v>
+        <v>1557.0</v>
       </c>
       <c s="1" r="G61">
         <v>0.0</v>
@@ -3325,45 +3364,21 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B62">
-        <v>440341.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C62">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c s="1" r="D62">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E62">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c s="1" r="F62">
-        <v>1557.0</v>
-      </c>
-      <c s="1" r="G62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I62">
-        <v>0.0</v>
+        <v>2420.0</v>
       </c>
       <c s="1" r="J62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N62">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O62">
         <v>0.0</v>
       </c>
     </row>
@@ -3372,21 +3387,45 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B63">
-        <v>233897.0</v>
+        <v>233754.0</v>
       </c>
       <c t="s" s="1" r="C63">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c s="1" r="D63">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E63">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c s="1" r="F63">
-        <v>2420.0</v>
+        <v>10942.0</v>
+      </c>
+      <c s="1" r="G63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I63">
+        <v>0.0</v>
       </c>
       <c s="1" r="J63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N63">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O63">
         <v>0.0</v>
       </c>
     </row>
@@ -3395,19 +3434,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B64">
-        <v>233754.0</v>
+        <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C64">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c s="1" r="D64">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E64">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c s="1" r="F64">
-        <v>10942.0</v>
+        <v>30134.0</v>
       </c>
       <c s="1" r="G64">
         <v>0.0</v>
@@ -3445,13 +3484,13 @@
         <v>233772.0</v>
       </c>
       <c t="s" s="1" r="C65">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c s="1" r="D65">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c t="s" s="1" r="E65">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c s="1" r="F65">
         <v>30134.0</v>
@@ -3489,19 +3528,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B66">
-        <v>233772.0</v>
+        <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C66">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c s="1" r="D66">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E66">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c s="1" r="F66">
-        <v>30134.0</v>
+        <v>5093.0</v>
       </c>
       <c s="1" r="G66">
         <v>0.0</v>
@@ -3539,13 +3578,13 @@
         <v>232681.0</v>
       </c>
       <c t="s" s="1" r="C67">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c s="1" r="D67">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E67">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c s="1" r="F67">
         <v>5093.0</v>
@@ -3583,19 +3622,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B68">
-        <v>232681.0</v>
+        <v>233374.0</v>
       </c>
       <c t="s" s="1" r="C68">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c s="1" r="D68">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E68">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c s="1" r="F68">
-        <v>5093.0</v>
+        <v>4361.0</v>
       </c>
       <c s="1" r="G68">
         <v>0.0</v>
@@ -3630,19 +3669,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B69">
-        <v>233374.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C69">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c s="1" r="D69">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E69">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c s="1" r="F69">
-        <v>4361.0</v>
+        <v>23907.0</v>
       </c>
       <c s="1" r="G69">
         <v>0.0</v>
@@ -3651,7 +3690,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I69">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J69">
         <v>0.0</v>
@@ -3663,7 +3702,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M69">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N69">
         <v>0.0</v>
@@ -3677,19 +3716,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B70">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C70">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c s="1" r="D70">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E70">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c s="1" r="F70">
-        <v>23907.0</v>
+        <v>31445.0</v>
       </c>
       <c s="1" r="G70">
         <v>0.0</v>
@@ -3698,7 +3737,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I70">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J70">
         <v>0.0</v>
@@ -3710,7 +3749,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M70">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N70">
         <v>0.0</v>
@@ -3727,13 +3766,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C71">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c s="1" r="D71">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E71">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c s="1" r="F71">
         <v>31445.0</v>
@@ -3771,19 +3810,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B72">
-        <v>234030.0</v>
+        <v>233912.0</v>
       </c>
       <c t="s" s="1" r="C72">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c s="1" r="D72">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E72">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c s="1" r="F72">
-        <v>31445.0</v>
+        <v>496.0</v>
       </c>
       <c s="1" r="G72">
         <v>0.0</v>
@@ -3818,19 +3857,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B73">
-        <v>233912.0</v>
+        <v>234085.0</v>
       </c>
       <c t="s" s="1" r="C73">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c s="1" r="D73">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E73">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c s="1" r="F73">
-        <v>496.0</v>
+        <v>1664.0</v>
       </c>
       <c s="1" r="G73">
         <v>0.0</v>
@@ -3865,19 +3904,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B74">
-        <v>234085.0</v>
+        <v>233921.0</v>
       </c>
       <c t="s" s="1" r="C74">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c s="1" r="D74">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c s="1" r="F74">
-        <v>1664.0</v>
+        <v>31087.0</v>
       </c>
       <c s="1" r="G74">
         <v>0.0</v>
@@ -3912,19 +3951,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B75">
-        <v>233921.0</v>
+        <v>234155.0</v>
       </c>
       <c t="s" s="1" r="C75">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c s="1" r="D75">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E75">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c s="1" r="F75">
-        <v>31087.0</v>
+        <v>6208.0</v>
       </c>
       <c s="1" r="G75">
         <v>0.0</v>
@@ -3959,19 +3998,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B76">
-        <v>234155.0</v>
+        <v>234137.0</v>
       </c>
       <c t="s" s="1" r="C76">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c s="1" r="D76">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E76">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c s="1" r="F76">
-        <v>6208.0</v>
+        <v>540.0</v>
       </c>
       <c s="1" r="G76">
         <v>0.0</v>
@@ -4006,19 +4045,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B77">
-        <v>234137.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C77">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c s="1" r="D77">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E77">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c s="1" r="F77">
-        <v>540.0</v>
+        <v>8440.0</v>
       </c>
       <c s="1" r="G77">
         <v>0.0</v>
@@ -4053,19 +4092,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B78">
-        <v>233949.0</v>
+        <v>234207.0</v>
       </c>
       <c t="s" s="1" r="C78">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c s="1" r="D78">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E78">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c s="1" r="F78">
-        <v>8440.0</v>
+        <v>2302.0</v>
       </c>
       <c s="1" r="G78">
         <v>0.0</v>
@@ -4100,19 +4139,19 @@
         <v>2012.0</v>
       </c>
       <c s="1" r="B79">
-        <v>234207.0</v>
+        <v>234377.0</v>
       </c>
       <c t="s" s="1" r="C79">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c s="1" r="D79">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E79">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c s="1" r="F79">
-        <v>2302.0</v>
+        <v>3717.0</v>
       </c>
       <c s="1" r="G79">
         <v>0.0</v>
@@ -4139,53 +4178,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O79">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c s="1" r="A80">
-        <v>2012.0</v>
-      </c>
-      <c s="1" r="B80">
-        <v>234377.0</v>
-      </c>
-      <c t="s" s="1" r="C80">
-        <v>170</v>
-      </c>
-      <c s="1" r="D80">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E80">
-        <v>171</v>
-      </c>
-      <c s="1" r="F80">
-        <v>3717.0</v>
-      </c>
-      <c s="1" r="G80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N80">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O80">
         <v>0.0</v>
       </c>
     </row>
